--- a/biology/Zoologie/Drassinella/Drassinella.xlsx
+++ b/biology/Zoologie/Drassinella/Drassinella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drassinella est un genre d'araignées aranéomorphes de la famille des Liocranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drassinella est un genre d'araignées aranéomorphes de la famille des Liocranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis et au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis et au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre mesurent de 2,5 à 4,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre mesurent de 2,5 à 4,0 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 20/02/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 20/02/2022) :
 Drassinella gertschi Platnick &amp; Ubick, 1989
 Drassinella modesta Banks, 1904
 Drassinella sclerata (Chamberlin &amp; Ivie, 1935)
@@ -609,10 +627,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Banks en 1904 dans les Drassidae. Il est placé dans les Corinnidae par Bosselaers et Jocqué en 2002[4], dans les Phrurolithidae par Ramírez en 2014[5] puis dans les Liocranidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022[6].
-Gosiphrurus[7] a été placée en synonymie par Roth en 1982[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Banks en 1904 dans les Drassidae. Il est placé dans les Corinnidae par Bosselaers et Jocqué en 2002, dans les Phrurolithidae par Ramírez en 2014 puis dans les Liocranidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022.
+Gosiphrurus a été placée en synonymie par Roth en 1982.
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Banks, 1904 : « Some Arachnida from California. » Proceedings of the California Academy of Sciences, sér. 3, vol. 3, no 13, p. 331-376 (texte intégral).</t>
         </is>
